--- a/45 Days Plan.xlsx
+++ b/45 Days Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT EXHIBITION II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CBSEatEase\CBSEatEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04141192-96F3-4D07-88EA-EFE0DAD2CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A752D39-9CAB-40A4-AF3F-131F740217D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{396CD635-7FC2-4E1F-9BFC-E862D4A910FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{396CD635-7FC2-4E1F-9BFC-E862D4A910FF}"/>
   </bookViews>
   <sheets>
     <sheet name="PCM" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
   <si>
     <t>DAY</t>
   </si>
@@ -271,17 +271,28 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>physics_imp.docx</t>
+  </si>
+  <si>
+    <t>chemistry_imp.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,13 +315,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,10 +638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F70124-E1BA-4DEB-9198-5102C8913266}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,615 +652,614 @@
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="b">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>16</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>17</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>25</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>27</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>28</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>29</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>32</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>33</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>56</v>
@@ -1254,193 +1267,216 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>34</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>35</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>36</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>37</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>38</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>39</v>
-      </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>38</v>
+      </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>40</v>
-      </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>39</v>
+      </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>41</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>42</v>
-      </c>
-      <c r="C90" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>44</v>
+      <c r="B92" t="s">
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>44</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3F50A64D-0F11-405B-89DB-F8340740EFDF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0498E717-BF4E-407C-AC23-6322200AEE4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EF5080-3405-4E4E-BE2C-F5FFB2E338F4}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,792 +1491,834 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>16</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>17</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>25</v>
       </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>27</v>
       </c>
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>28</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>29</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>32</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>33</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>33</v>
+      </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>35</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>3</v>
+      <c r="B77" t="s">
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>36</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>37</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>38</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>39</v>
-      </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>38</v>
+      </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>40</v>
-      </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>39</v>
+      </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>41</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>42</v>
-      </c>
-      <c r="C90" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>44</v>
+      <c r="B92" t="s">
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>44</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BD9A5F52-5620-4FCA-98A9-2EF3C2223B74}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{618F4E40-FA01-47A6-B9D3-523361FEF1F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f23751fe-5ab4-4ebd-a0fa-00310085f58a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC65B2F8CF761E4BB39A79009F557D9E" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="608981c1857c4b7c3ffb8d5d9afd1404">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f23751fe-5ab4-4ebd-a0fa-00310085f58a" xmlns:ns4="5ac0802e-4f49-4687-bfeb-fcc31bfe1bd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="706fd0ea0784b376334a948a3fd505ab" ns3:_="" ns4:_="">
     <xsd:import namespace="f23751fe-5ab4-4ebd-a0fa-00310085f58a"/>
@@ -2429,38 +2507,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f23751fe-5ab4-4ebd-a0fa-00310085f58a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B698FAC-C789-499A-A80C-73B280243C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9599E3-A36F-40F2-80D2-68D4000B8C3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f23751fe-5ab4-4ebd-a0fa-00310085f58a"/>
-    <ds:schemaRef ds:uri="5ac0802e-4f49-4687-bfeb-fcc31bfe1bd5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2483,9 +2533,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9599E3-A36F-40F2-80D2-68D4000B8C3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B698FAC-C789-499A-A80C-73B280243C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f23751fe-5ab4-4ebd-a0fa-00310085f58a"/>
+    <ds:schemaRef ds:uri="5ac0802e-4f49-4687-bfeb-fcc31bfe1bd5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/45 Days Plan.xlsx
+++ b/45 Days Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CBSEatEase\CBSEatEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A752D39-9CAB-40A4-AF3F-131F740217D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D9916E-4C88-45FD-992C-44701C5518EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{396CD635-7FC2-4E1F-9BFC-E862D4A910FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="79">
   <si>
     <t>DAY</t>
   </si>
@@ -271,28 +271,17 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>physics_imp.docx</t>
-  </si>
-  <si>
-    <t>chemistry_imp.docx</t>
+    <t xml:space="preserve">                                                                                WEEK 1                                                         </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,16 +304,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,10 +624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F70124-E1BA-4DEB-9198-5102C8913266}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,612 +640,613 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
       <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>3</v>
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>22</v>
-      </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>24</v>
+      </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>23</v>
-      </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>26</v>
+      </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>6</v>
+      <c r="A60">
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>27</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="A62" t="s">
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
       <c r="C64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>31</v>
+      </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>31</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>32</v>
-      </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>56</v>
@@ -1267,216 +1254,193 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="A75">
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>34</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="A77" t="s">
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>3</v>
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>36</v>
-      </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>38</v>
+      </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>37</v>
-      </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>39</v>
+      </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>38</v>
-      </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>40</v>
+      </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>39</v>
-      </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>41</v>
+      </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>40</v>
-      </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>6</v>
+      <c r="A90">
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>41</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="A92">
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>43</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>44</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>45</v>
-      </c>
-      <c r="C96" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3F50A64D-0F11-405B-89DB-F8340740EFDF}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0498E717-BF4E-407C-AC23-6322200AEE4D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EF5080-3405-4E4E-BE2C-F5FFB2E338F4}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,834 +1455,792 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>77</v>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
       <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>3</v>
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>22</v>
-      </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>24</v>
+      </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>23</v>
-      </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>26</v>
+      </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>77</v>
+      <c r="A60">
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>27</v>
-      </c>
-      <c r="B62" t="s">
-        <v>77</v>
+      <c r="A62" t="s">
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
       <c r="C64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>31</v>
+      </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>31</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>32</v>
-      </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>33</v>
-      </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>77</v>
+      <c r="A75">
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>77</v>
+      <c r="A77" t="s">
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>3</v>
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>36</v>
-      </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>38</v>
+      </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>37</v>
-      </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>39</v>
+      </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>38</v>
-      </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>40</v>
+      </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>39</v>
-      </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>41</v>
+      </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>40</v>
-      </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>77</v>
+      <c r="A90">
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>41</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>77</v>
+      <c r="A92">
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>43</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>44</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>45</v>
-      </c>
-      <c r="C96" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BD9A5F52-5620-4FCA-98A9-2EF3C2223B74}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{618F4E40-FA01-47A6-B9D3-523361FEF1F7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f23751fe-5ab4-4ebd-a0fa-00310085f58a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC65B2F8CF761E4BB39A79009F557D9E" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="608981c1857c4b7c3ffb8d5d9afd1404">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f23751fe-5ab4-4ebd-a0fa-00310085f58a" xmlns:ns4="5ac0802e-4f49-4687-bfeb-fcc31bfe1bd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="706fd0ea0784b376334a948a3fd505ab" ns3:_="" ns4:_="">
     <xsd:import namespace="f23751fe-5ab4-4ebd-a0fa-00310085f58a"/>
@@ -2507,10 +2429,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f23751fe-5ab4-4ebd-a0fa-00310085f58a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9599E3-A36F-40F2-80D2-68D4000B8C3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B698FAC-C789-499A-A80C-73B280243C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f23751fe-5ab4-4ebd-a0fa-00310085f58a"/>
+    <ds:schemaRef ds:uri="5ac0802e-4f49-4687-bfeb-fcc31bfe1bd5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2533,20 +2483,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B698FAC-C789-499A-A80C-73B280243C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9599E3-A36F-40F2-80D2-68D4000B8C3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f23751fe-5ab4-4ebd-a0fa-00310085f58a"/>
-    <ds:schemaRef ds:uri="5ac0802e-4f49-4687-bfeb-fcc31bfe1bd5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>